--- a/forms/app/test2.xlsx
+++ b/forms/app/test2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -147,6 +147,18 @@
     <t xml:space="preserve">dia_session</t>
   </si>
   <si>
+    <t xml:space="preserve">ma_session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">previous_ctx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(instance('contact-summary')/context/previous_ctx, instance('contact-summary')/context/previous_ctx, .)</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin_group</t>
   </si>
   <si>
@@ -165,7 +177,35 @@
     <t xml:space="preserve">n_1</t>
   </si>
   <si>
-    <t xml:space="preserve">this is first session for hypertension </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this is first session for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Anxiety</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <r>
@@ -203,7 +243,35 @@
     <t xml:space="preserve">n_2</t>
   </si>
   <si>
-    <t xml:space="preserve">this is second session for hypertension </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this is second session for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Anxiety</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <r>
@@ -241,7 +309,119 @@
     <t xml:space="preserve">n_3</t>
   </si>
   <si>
-    <t xml:space="preserve">this is first session for diabetes</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this is first session for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Depression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dia_session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = ‘1’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">n_4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">this is second session for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Depression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dia_session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = ‘2’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">n_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is first session for MA session</t>
   </si>
   <si>
     <r>
@@ -261,7 +441,7 @@
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">dia_session</t>
+      <t xml:space="preserve">ma_session</t>
     </r>
     <r>
       <rPr>
@@ -275,10 +455,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">n_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is second session for diabetes</t>
+    <t xml:space="preserve">n_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is second session for MA session</t>
   </si>
   <si>
     <r>
@@ -298,7 +478,7 @@
         <rFont val="Calibri"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">dia_session</t>
+      <t xml:space="preserve">ma_session</t>
     </r>
     <r>
       <rPr>
@@ -312,6 +492,80 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">n_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is third session for MA session</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">ma_session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = ‘3’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">n_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is fourth session for MA session</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">ma_session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = ‘4’</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">end_group</t>
   </si>
   <si>
@@ -358,7 +612,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -426,11 +680,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="13"/>
@@ -461,7 +727,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,13 +749,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF729FCF"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -578,7 +850,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -627,39 +899,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -667,55 +947,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -773,7 +1053,7 @@
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF77BC65"/>
@@ -800,10 +1080,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1288,38 +1568,60 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="0"/>
       <c r="O18" s="7"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
+      <c r="K19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1338,7 +1640,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1346,619 +1648,701 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>47</v>
+      <c r="D28" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="E28" s="0"/>
-      <c r="F28" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="0"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>50</v>
+      <c r="C29" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="E29" s="0"/>
       <c r="F29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G29" s="0"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>53</v>
+      <c r="C30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="E30" s="0"/>
       <c r="F30" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G30" s="0"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="A31" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>56</v>
+      <c r="C31" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E31" s="0"/>
       <c r="F31" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G31" s="0"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
+      <c r="F32" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="G32" s="0"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
+      <c r="F33" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="G33" s="0"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="0"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="0"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="0"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -1966,6 +2350,8 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
@@ -1973,6 +2359,8 @@
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -1980,8 +2368,8 @@
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
@@ -1989,10 +2377,6 @@
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -2000,10 +2384,6 @@
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -2011,10 +2391,6 @@
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
@@ -2024,8 +2400,6 @@
       <c r="B59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -2044,14 +2418,6 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -2063,8 +2429,6 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -2076,8 +2440,6 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -2089,8 +2451,6 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -2123,12 +2483,6 @@
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -2142,12 +2496,6 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -2161,12 +2509,6 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -2256,6 +2598,12 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -2269,6 +2617,12 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -2282,6 +2636,12 @@
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -2314,12 +2674,6 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -2333,12 +2687,6 @@
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -2365,6 +2713,12 @@
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -2378,6 +2732,12 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -2410,12 +2770,6 @@
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -2429,12 +2783,6 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -2448,12 +2796,6 @@
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -2562,6 +2904,12 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -2575,6 +2923,12 @@
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -2588,6 +2942,12 @@
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -2620,12 +2980,6 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -2639,12 +2993,6 @@
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -2658,12 +3006,6 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -2673,6 +3015,8 @@
       <c r="Q97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -2681,8 +3025,17 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2691,6 +3044,71 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2711,7 +3129,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D33:D36 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2720,42 +3138,42 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -2784,67 +3202,67 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="34"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="3"/>
     </row>
   </sheetData>
@@ -2866,7 +3284,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D33:D36 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2878,52 +3296,52 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="35" t="n">
+        <v>83</v>
+      </c>
+      <c r="C2" s="37" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
